--- a/config/itech-aurum/forms/app/mute.xlsx
+++ b/config/itech-aurum/forms/app/mute.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-78\itech-aurum\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-81\itech-aurum\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C48FBE-B1DB-48AF-92A0-4649B97EBA97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16089DA-4EB0-4172-88C8-41DB6940146A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <t>type</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>select_multiple confirm</t>
+  </si>
+  <si>
+    <t>instance::tag</t>
   </si>
 </sst>
 </file>
@@ -856,7 +859,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -872,11 +875,12 @@
     <col min="9" max="9" width="20.875" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="14"/>
     <col min="11" max="11" width="19.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="1025" width="11.5" style="14"/>
+    <col min="12" max="12" width="13.375" style="14" customWidth="1"/>
+    <col min="13" max="1025" width="11.5" style="14"/>
     <col min="1026" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="13" customFormat="1" ht="15.75">
+    <row r="1" spans="1:26" s="13" customFormat="1" ht="30">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -910,7 +914,9 @@
       <c r="K1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11"/>
+      <c r="L1" s="25" t="s">
+        <v>65</v>
+      </c>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
@@ -948,6 +954,7 @@
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="16" t="s">
@@ -971,6 +978,7 @@
         <v>20</v>
       </c>
       <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="16" t="s">
@@ -992,6 +1000,7 @@
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="16" t="s">
@@ -1011,6 +1020,7 @@
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="16" t="s">
@@ -1036,6 +1046,7 @@
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="16" t="s">
@@ -1055,6 +1066,7 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="16" t="s">
@@ -1074,6 +1086,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="16" t="s">
@@ -1089,6 +1102,7 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="16" t="s">
@@ -1104,6 +1118,7 @@
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="10"/>
@@ -1117,6 +1132,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="21" t="s">
@@ -1138,7 +1154,7 @@
       <c r="K12" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="15"/>
+      <c r="L12" s="32"/>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
@@ -1174,7 +1190,7 @@
       <c r="K13" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="15"/>
+      <c r="L13" s="32"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
@@ -1210,7 +1226,9 @@
       <c r="K14" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="15"/>
+      <c r="L14" s="32" t="s">
+        <v>19</v>
+      </c>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
@@ -1238,7 +1256,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="33"/>
-      <c r="L15" s="15"/>
+      <c r="L15" s="33"/>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
@@ -1274,8 +1292,9 @@
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
       <c r="K16" s="29"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="29"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="22" t="s">
         <v>16</v>
       </c>
@@ -1295,8 +1314,9 @@
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
       <c r="K17" s="29"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="27"/>
@@ -1309,7 +1329,7 @@
       <c r="J18" s="10"/>
       <c r="K18" s="27"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="27"/>
@@ -1322,7 +1342,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="27"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="27"/>
